--- a/data/trans_orig/IP19C03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F65CECD0-4C5F-46D9-945B-C6C03FBE836D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C603BAE9-3436-4E1E-99CD-274E47786011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D858ADF0-1F3E-41FF-BE4E-439E87BFC7CF}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{14D2B265-931A-46C7-A1AE-9B06E7F5679B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,57 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,57 +242,6 @@
     <t>26,66%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
     <t>82,45%</t>
   </si>
   <si>
@@ -335,6 +335,60 @@
     <t>16,3%</t>
   </si>
   <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
     <t>77,43%</t>
   </si>
   <si>
@@ -389,60 +443,6 @@
     <t>26,76%</t>
   </si>
   <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
     <t>80,6%</t>
   </si>
   <si>
@@ -542,6 +542,60 @@
     <t>23,43%</t>
   </si>
   <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
     <t>79,76%</t>
   </si>
   <si>
@@ -596,60 +650,6 @@
     <t>21,16%</t>
   </si>
   <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
     <t>81,81%</t>
   </si>
   <si>
@@ -755,6 +755,60 @@
     <t>30,29%</t>
   </si>
   <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
     <t>85,22%</t>
   </si>
   <si>
@@ -807,60 +861,6 @@
   </si>
   <si>
     <t>17,49%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
   </si>
   <si>
     <t>80,92%</t>
@@ -1300,7 +1300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B99F9F1-E13A-4BDE-B51B-339CB2677668}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5303FD8B-32C8-4B22-B69C-2EE1C34D7E8C}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1573,10 +1573,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>271</v>
+        <v>150</v>
       </c>
       <c r="D7" s="7">
-        <v>181400</v>
+        <v>98510</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1585,37 +1585,37 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7">
+        <v>136</v>
+      </c>
+      <c r="I7" s="7">
+        <v>91885</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7">
-        <v>244</v>
-      </c>
-      <c r="I7" s="7">
-        <v>165765</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>286</v>
+      </c>
+      <c r="N7" s="7">
+        <v>190395</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="7">
-        <v>515</v>
-      </c>
-      <c r="N7" s="7">
-        <v>347165</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,49 +1624,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7">
-        <v>48980</v>
+        <v>13206</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>21</v>
+      </c>
+      <c r="I8" s="7">
+        <v>14185</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>86</v>
-      </c>
-      <c r="I8" s="7">
-        <v>56865</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>41</v>
+      </c>
+      <c r="N8" s="7">
+        <v>27391</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>159</v>
-      </c>
-      <c r="N8" s="7">
-        <v>105845</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1675,10 +1675,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>230380</v>
+        <v>111716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1690,10 +1690,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>330</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7">
-        <v>222630</v>
+        <v>106070</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1705,10 +1705,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>674</v>
+        <v>327</v>
       </c>
       <c r="N9" s="7">
-        <v>453010</v>
+        <v>217786</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1722,55 +1722,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="D10" s="7">
-        <v>98510</v>
+        <v>181400</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>244</v>
+      </c>
+      <c r="I10" s="7">
+        <v>165765</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="7">
-        <v>136</v>
-      </c>
-      <c r="I10" s="7">
-        <v>91885</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>515</v>
+      </c>
+      <c r="N10" s="7">
+        <v>347165</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="7">
-        <v>286</v>
-      </c>
-      <c r="N10" s="7">
-        <v>190395</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,25 +1779,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7">
-        <v>13206</v>
+        <v>48980</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I11" s="7">
-        <v>14185</v>
+        <v>56865</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -1809,10 +1809,10 @@
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="N11" s="7">
-        <v>27391</v>
+        <v>105845</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1830,10 +1830,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>170</v>
+        <v>344</v>
       </c>
       <c r="D12" s="7">
-        <v>111716</v>
+        <v>230380</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1845,10 +1845,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>157</v>
+        <v>330</v>
       </c>
       <c r="I12" s="7">
-        <v>106070</v>
+        <v>222630</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1860,10 +1860,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>327</v>
+        <v>674</v>
       </c>
       <c r="N12" s="7">
-        <v>217786</v>
+        <v>453010</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2046,7 +2046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24792BE5-03CD-4135-9A95-4F7903C7998C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476D36BF-944A-4F9C-9321-2538FFD5FE3F}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2319,10 +2319,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="D7" s="7">
-        <v>170489</v>
+        <v>111905</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>98</v>
@@ -2334,10 +2334,10 @@
         <v>100</v>
       </c>
       <c r="H7" s="7">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="I7" s="7">
-        <v>161644</v>
+        <v>103803</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>101</v>
@@ -2349,10 +2349,10 @@
         <v>103</v>
       </c>
       <c r="M7" s="7">
-        <v>478</v>
+        <v>296</v>
       </c>
       <c r="N7" s="7">
-        <v>332133</v>
+        <v>215709</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>104</v>
@@ -2370,10 +2370,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7">
-        <v>49700</v>
+        <v>20773</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>107</v>
@@ -2385,10 +2385,10 @@
         <v>109</v>
       </c>
       <c r="H8" s="7">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="I8" s="7">
-        <v>50891</v>
+        <v>21322</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>110</v>
@@ -2400,10 +2400,10 @@
         <v>112</v>
       </c>
       <c r="M8" s="7">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="N8" s="7">
-        <v>100591</v>
+        <v>42095</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>113</v>
@@ -2421,10 +2421,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>325</v>
+        <v>181</v>
       </c>
       <c r="D9" s="7">
-        <v>220189</v>
+        <v>132678</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2436,10 +2436,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>175</v>
       </c>
       <c r="I9" s="7">
-        <v>212535</v>
+        <v>125125</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2451,10 +2451,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>629</v>
+        <v>356</v>
       </c>
       <c r="N9" s="7">
-        <v>432724</v>
+        <v>257804</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2468,16 +2468,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>152</v>
+        <v>249</v>
       </c>
       <c r="D10" s="7">
-        <v>111905</v>
+        <v>170489</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>116</v>
@@ -2489,10 +2489,10 @@
         <v>118</v>
       </c>
       <c r="H10" s="7">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="I10" s="7">
-        <v>103803</v>
+        <v>161644</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>119</v>
@@ -2504,10 +2504,10 @@
         <v>121</v>
       </c>
       <c r="M10" s="7">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="N10" s="7">
-        <v>215709</v>
+        <v>332133</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>122</v>
@@ -2525,10 +2525,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D11" s="7">
-        <v>20773</v>
+        <v>49700</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>125</v>
@@ -2540,10 +2540,10 @@
         <v>127</v>
       </c>
       <c r="H11" s="7">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="I11" s="7">
-        <v>21322</v>
+        <v>50891</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>128</v>
@@ -2555,10 +2555,10 @@
         <v>130</v>
       </c>
       <c r="M11" s="7">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="N11" s="7">
-        <v>42095</v>
+        <v>100591</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>131</v>
@@ -2576,10 +2576,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>181</v>
+        <v>325</v>
       </c>
       <c r="D12" s="7">
-        <v>132678</v>
+        <v>220189</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2591,10 +2591,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>175</v>
+        <v>304</v>
       </c>
       <c r="I12" s="7">
-        <v>125125</v>
+        <v>212535</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2606,10 +2606,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>356</v>
+        <v>629</v>
       </c>
       <c r="N12" s="7">
-        <v>257804</v>
+        <v>432724</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2792,7 +2792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E14A1AD-DAFB-4E08-9DEB-289C0687F27F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4E6464-5767-46FD-A85A-26C315352A6B}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3065,10 +3065,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>242</v>
+        <v>161</v>
       </c>
       <c r="D7" s="7">
-        <v>179750</v>
+        <v>112821</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>167</v>
@@ -3080,10 +3080,10 @@
         <v>169</v>
       </c>
       <c r="H7" s="7">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="I7" s="7">
-        <v>185640</v>
+        <v>105901</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>170</v>
@@ -3095,10 +3095,10 @@
         <v>172</v>
       </c>
       <c r="M7" s="7">
-        <v>501</v>
+        <v>320</v>
       </c>
       <c r="N7" s="7">
-        <v>365390</v>
+        <v>218723</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>173</v>
@@ -3116,10 +3116,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>45600</v>
+        <v>20845</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>176</v>
@@ -3131,10 +3131,10 @@
         <v>178</v>
       </c>
       <c r="H8" s="7">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>36542</v>
+        <v>23903</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>179</v>
@@ -3146,10 +3146,10 @@
         <v>181</v>
       </c>
       <c r="M8" s="7">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="N8" s="7">
-        <v>82142</v>
+        <v>44747</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>182</v>
@@ -3167,10 +3167,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>305</v>
+        <v>191</v>
       </c>
       <c r="D9" s="7">
-        <v>225350</v>
+        <v>133666</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3182,10 +3182,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>314</v>
+        <v>196</v>
       </c>
       <c r="I9" s="7">
-        <v>222182</v>
+        <v>129804</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3197,10 +3197,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>619</v>
+        <v>387</v>
       </c>
       <c r="N9" s="7">
-        <v>447532</v>
+        <v>263470</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3214,16 +3214,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="D10" s="7">
-        <v>112821</v>
+        <v>179750</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>185</v>
@@ -3235,10 +3235,10 @@
         <v>187</v>
       </c>
       <c r="H10" s="7">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="I10" s="7">
-        <v>105901</v>
+        <v>185640</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>188</v>
@@ -3250,10 +3250,10 @@
         <v>190</v>
       </c>
       <c r="M10" s="7">
-        <v>320</v>
+        <v>501</v>
       </c>
       <c r="N10" s="7">
-        <v>218723</v>
+        <v>365390</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>191</v>
@@ -3271,10 +3271,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D11" s="7">
-        <v>20845</v>
+        <v>45600</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>194</v>
@@ -3286,10 +3286,10 @@
         <v>196</v>
       </c>
       <c r="H11" s="7">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I11" s="7">
-        <v>23903</v>
+        <v>36542</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>197</v>
@@ -3301,10 +3301,10 @@
         <v>199</v>
       </c>
       <c r="M11" s="7">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="N11" s="7">
-        <v>44747</v>
+        <v>82142</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>200</v>
@@ -3322,10 +3322,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>191</v>
+        <v>305</v>
       </c>
       <c r="D12" s="7">
-        <v>133666</v>
+        <v>225350</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3337,10 +3337,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>196</v>
+        <v>314</v>
       </c>
       <c r="I12" s="7">
-        <v>129804</v>
+        <v>222182</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3352,10 +3352,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>387</v>
+        <v>619</v>
       </c>
       <c r="N12" s="7">
-        <v>263470</v>
+        <v>447532</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3417,7 +3417,7 @@
         <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,7 +3465,7 @@
         <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>218</v>
@@ -3538,7 +3538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873F0E7D-640B-47DC-BA3C-45FCF81EACC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB792E72-7A7C-4995-BAE9-F0FE11A1AFE5}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3811,10 +3811,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>317</v>
+        <v>126</v>
       </c>
       <c r="D7" s="7">
-        <v>272393</v>
+        <v>100335</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>238</v>
@@ -3826,10 +3826,10 @@
         <v>240</v>
       </c>
       <c r="H7" s="7">
-        <v>309</v>
+        <v>123</v>
       </c>
       <c r="I7" s="7">
-        <v>232314</v>
+        <v>87877</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>241</v>
@@ -3841,10 +3841,10 @@
         <v>243</v>
       </c>
       <c r="M7" s="7">
-        <v>626</v>
+        <v>249</v>
       </c>
       <c r="N7" s="7">
-        <v>504707</v>
+        <v>188212</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>244</v>
@@ -3862,10 +3862,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7">
-        <v>47244</v>
+        <v>23385</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>247</v>
@@ -3877,10 +3877,10 @@
         <v>249</v>
       </c>
       <c r="H8" s="7">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I8" s="7">
-        <v>40027</v>
+        <v>23655</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>250</v>
@@ -3892,10 +3892,10 @@
         <v>252</v>
       </c>
       <c r="M8" s="7">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="N8" s="7">
-        <v>87271</v>
+        <v>47040</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>253</v>
@@ -3913,10 +3913,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>377</v>
+        <v>155</v>
       </c>
       <c r="D9" s="7">
-        <v>319637</v>
+        <v>123720</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3928,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>368</v>
+        <v>154</v>
       </c>
       <c r="I9" s="7">
-        <v>272341</v>
+        <v>111532</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3943,10 +3943,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>745</v>
+        <v>309</v>
       </c>
       <c r="N9" s="7">
-        <v>591978</v>
+        <v>235252</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3960,16 +3960,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="D10" s="7">
-        <v>100335</v>
+        <v>272393</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>256</v>
@@ -3981,10 +3981,10 @@
         <v>258</v>
       </c>
       <c r="H10" s="7">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="I10" s="7">
-        <v>87877</v>
+        <v>232314</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>259</v>
@@ -3996,10 +3996,10 @@
         <v>261</v>
       </c>
       <c r="M10" s="7">
-        <v>249</v>
+        <v>626</v>
       </c>
       <c r="N10" s="7">
-        <v>188212</v>
+        <v>504707</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>262</v>
@@ -4017,10 +4017,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7">
-        <v>23385</v>
+        <v>47244</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>265</v>
@@ -4032,10 +4032,10 @@
         <v>267</v>
       </c>
       <c r="H11" s="7">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I11" s="7">
-        <v>23655</v>
+        <v>40027</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>268</v>
@@ -4047,10 +4047,10 @@
         <v>270</v>
       </c>
       <c r="M11" s="7">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="N11" s="7">
-        <v>47040</v>
+        <v>87271</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>271</v>
@@ -4068,10 +4068,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>155</v>
+        <v>377</v>
       </c>
       <c r="D12" s="7">
-        <v>123720</v>
+        <v>319637</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4083,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>154</v>
+        <v>368</v>
       </c>
       <c r="I12" s="7">
-        <v>111532</v>
+        <v>272341</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4098,10 +4098,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>309</v>
+        <v>745</v>
       </c>
       <c r="N12" s="7">
-        <v>235252</v>
+        <v>591978</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4127,7 +4127,7 @@
         <v>390982</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>274</v>
@@ -4178,7 +4178,7 @@
         <v>73821</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>282</v>

--- a/data/trans_orig/IP19C03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C603BAE9-3436-4E1E-99CD-274E47786011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6C23B6F-D5F5-4078-8939-0453EDA891C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{14D2B265-931A-46C7-A1AE-9B06E7F5679B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60C6A628-E411-4F76-97C6-D609120FFEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="325">
   <si>
     <t>Menores según su última visita al dentista fue por empastes en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -68,847 +68,952 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
+    <t>55,59%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2015 (Tasa respuesta: 48,82%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
   </si>
   <si>
     <t>80,07%</t>
   </si>
   <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2015 (Tasa respuesta: 48,82%)</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
   </si>
   <si>
     <t>84,12%</t>
   </si>
   <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
   </si>
   <si>
     <t>83,07%</t>
   </si>
   <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
   </si>
 </sst>
 </file>
@@ -919,7 +1024,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1015,39 +1120,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1099,7 +1204,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1210,13 +1315,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1225,6 +1323,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1289,19 +1394,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5303FD8B-32C8-4B22-B69C-2EE1C34D7E8C}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5000138-106A-4ECD-BDF7-D3D45349B991}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1418,10 +1543,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>18350</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1433,85 +1558,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>20491</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>61</v>
-      </c>
-      <c r="N4" s="7">
-        <v>38840</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1893</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3906</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1285</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>9</v>
+      </c>
+      <c r="N5" s="7">
+        <v>5799</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1739</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3025</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1520,153 +1645,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>19635</v>
+        <v>1893</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>22230</v>
+        <v>3906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>41865</v>
+        <v>5799</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>98510</v>
+        <v>7270</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>91885</v>
+        <v>9703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>286</v>
+        <v>26</v>
       </c>
       <c r="N7" s="7">
-        <v>190395</v>
+        <v>16973</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="D8" s="7">
-        <v>13206</v>
+        <v>73148</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="7">
+        <v>112</v>
+      </c>
+      <c r="I8" s="7">
+        <v>74632</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="7">
+        <v>224</v>
+      </c>
+      <c r="N8" s="7">
+        <v>147780</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="7">
-        <v>21</v>
-      </c>
-      <c r="I8" s="7">
-        <v>14185</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="7">
-        <v>41</v>
-      </c>
-      <c r="N8" s="7">
-        <v>27391</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1675,153 +1800,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="D9" s="7">
-        <v>111716</v>
+        <v>80418</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="I9" s="7">
-        <v>106070</v>
+        <v>84335</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="N9" s="7">
-        <v>217786</v>
+        <v>164753</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>181400</v>
+        <v>17652</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="7">
+        <v>30</v>
+      </c>
+      <c r="I10" s="7">
+        <v>19547</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="7">
+        <v>56</v>
+      </c>
+      <c r="N10" s="7">
+        <v>37199</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7">
-        <v>244</v>
-      </c>
-      <c r="I10" s="7">
-        <v>165765</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="7">
-        <v>515</v>
-      </c>
-      <c r="N10" s="7">
-        <v>347165</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="D11" s="7">
-        <v>48980</v>
+        <v>88067</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="7">
+        <v>118</v>
+      </c>
+      <c r="I11" s="7">
+        <v>79646</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="7">
+        <v>250</v>
+      </c>
+      <c r="N11" s="7">
+        <v>167713</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="7">
-        <v>86</v>
-      </c>
-      <c r="I11" s="7">
-        <v>56865</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="7">
-        <v>159</v>
-      </c>
-      <c r="N11" s="7">
-        <v>105845</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,153 +1955,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="D12" s="7">
-        <v>230380</v>
+        <v>105719</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>330</v>
+        <v>148</v>
       </c>
       <c r="I12" s="7">
-        <v>222630</v>
+        <v>99193</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>674</v>
+        <v>306</v>
       </c>
       <c r="N12" s="7">
-        <v>453010</v>
+        <v>204912</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>450</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7">
-        <v>298260</v>
+        <v>38549</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="7">
+        <v>65</v>
+      </c>
+      <c r="I13" s="7">
+        <v>43539</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="7">
+        <v>123</v>
+      </c>
+      <c r="N13" s="7">
+        <v>82088</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="H13" s="7">
-        <v>412</v>
-      </c>
-      <c r="I13" s="7">
-        <v>278141</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>862</v>
-      </c>
-      <c r="N13" s="7">
-        <v>576401</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="D14" s="7">
-        <v>63471</v>
+        <v>135152</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="7">
+        <v>176</v>
+      </c>
+      <c r="I14" s="7">
+        <v>119958</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="7">
+        <v>379</v>
+      </c>
+      <c r="N14" s="7">
+        <v>255109</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H14" s="7">
-        <v>110</v>
-      </c>
-      <c r="I14" s="7">
-        <v>72789</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="7">
-        <v>205</v>
-      </c>
-      <c r="N14" s="7">
-        <v>136260</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,55 +2110,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>261</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173701</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>241</v>
+      </c>
+      <c r="I15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>502</v>
+      </c>
+      <c r="N15" s="7">
+        <v>337197</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>95</v>
+      </c>
+      <c r="D16" s="7">
+        <v>63471</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="7">
+        <v>110</v>
+      </c>
+      <c r="I16" s="7">
+        <v>72789</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="7">
+        <v>205</v>
+      </c>
+      <c r="N16" s="7">
+        <v>136260</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>450</v>
+      </c>
+      <c r="D17" s="7">
+        <v>298260</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7">
+        <v>412</v>
+      </c>
+      <c r="I17" s="7">
+        <v>278141</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="7">
+        <v>862</v>
+      </c>
+      <c r="N17" s="7">
+        <v>576401</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>361731</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>522</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>350930</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1067</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>712661</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2046,8 +2332,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476D36BF-944A-4F9C-9321-2538FFD5FE3F}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E348D9B-1CEC-431F-B0E8-AC25C643886F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2063,7 +2349,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2164,100 +2450,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13060</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>14962</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>28022</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>647</v>
+        <v>669</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>731</v>
+        <v>3298</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>1377</v>
+        <v>3967</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,153 +2552,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>13707</v>
+        <v>669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>15693</v>
+        <v>3298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>29399</v>
+        <v>3967</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>111905</v>
+        <v>12694</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>103803</v>
+        <v>7162</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
-        <v>296</v>
+        <v>28</v>
       </c>
       <c r="N7" s="7">
-        <v>215709</v>
+        <v>19856</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="D8" s="7">
-        <v>20773</v>
+        <v>79370</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="I8" s="7">
-        <v>21322</v>
+        <v>70526</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="N8" s="7">
-        <v>42095</v>
+        <v>149895</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,153 +2707,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="D9" s="7">
-        <v>132678</v>
+        <v>92064</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="I9" s="7">
-        <v>125125</v>
+        <v>77688</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="N9" s="7">
-        <v>257804</v>
+        <v>169751</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>170489</v>
+        <v>25560</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>161644</v>
+        <v>26257</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
-        <v>478</v>
+        <v>76</v>
       </c>
       <c r="N10" s="7">
-        <v>332133</v>
+        <v>51816</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="D11" s="7">
-        <v>49700</v>
+        <v>106526</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="I11" s="7">
-        <v>50891</v>
+        <v>98191</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
-        <v>151</v>
+        <v>291</v>
       </c>
       <c r="N11" s="7">
-        <v>100591</v>
+        <v>204718</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,153 +2862,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>325</v>
+        <v>190</v>
       </c>
       <c r="D12" s="7">
-        <v>220189</v>
+        <v>132086</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>177</v>
       </c>
       <c r="I12" s="7">
-        <v>212535</v>
+        <v>124448</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>629</v>
+        <v>367</v>
       </c>
       <c r="N12" s="7">
-        <v>432724</v>
+        <v>256534</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>419</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>295454</v>
+        <v>32866</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
-        <v>396</v>
+        <v>58</v>
       </c>
       <c r="I13" s="7">
-        <v>280409</v>
+        <v>39525</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
-        <v>815</v>
+        <v>109</v>
       </c>
       <c r="N13" s="7">
-        <v>575863</v>
+        <v>72392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="D14" s="7">
-        <v>71120</v>
+        <v>108889</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="I14" s="7">
-        <v>72944</v>
+        <v>108395</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M14" s="7">
-        <v>213</v>
+        <v>312</v>
       </c>
       <c r="N14" s="7">
-        <v>144064</v>
+        <v>217283</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,55 +3017,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>210</v>
+      </c>
+      <c r="D15" s="7">
+        <v>141755</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>211</v>
+      </c>
+      <c r="I15" s="7">
+        <v>147920</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>421</v>
+      </c>
+      <c r="N15" s="7">
+        <v>289675</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>106</v>
+      </c>
+      <c r="D16" s="7">
+        <v>71120</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="7">
+        <v>107</v>
+      </c>
+      <c r="I16" s="7">
+        <v>72944</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" s="7">
+        <v>213</v>
+      </c>
+      <c r="N16" s="7">
+        <v>144064</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>419</v>
+      </c>
+      <c r="D17" s="7">
+        <v>295454</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="7">
+        <v>396</v>
+      </c>
+      <c r="I17" s="7">
+        <v>280409</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" s="7">
+        <v>815</v>
+      </c>
+      <c r="N17" s="7">
+        <v>575863</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>525</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>366574</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>503</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>353353</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1028</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>719927</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2792,8 +3239,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4E6464-5767-46FD-A85A-26C315352A6B}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291E5B9F-739C-4AB8-8CB4-128A864E6131}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2809,7 +3256,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2910,100 +3357,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>9097</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7">
-        <v>9445</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>29</v>
-      </c>
-      <c r="N4" s="7">
-        <v>18542</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1284</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
-        <v>646</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
       <c r="I5" s="7">
-        <v>1186</v>
+        <v>536</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>1832</v>
+        <v>1819</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,153 +3459,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>9743</v>
+        <v>1284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>10631</v>
+        <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>20374</v>
+        <v>1819</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>112821</v>
+        <v>11366</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>105901</v>
+        <v>10485</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>218723</v>
+        <v>21850</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D8" s="7">
-        <v>20845</v>
+        <v>70763</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="I8" s="7">
-        <v>23903</v>
+        <v>57575</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="N8" s="7">
-        <v>44747</v>
+        <v>128339</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,153 +3614,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D9" s="7">
-        <v>133666</v>
+        <v>82129</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="I9" s="7">
-        <v>129804</v>
+        <v>68060</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="N9" s="7">
-        <v>263470</v>
+        <v>150189</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>179750</v>
+        <v>24391</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
-        <v>259</v>
+        <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>185640</v>
+        <v>22358</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
-        <v>501</v>
+        <v>68</v>
       </c>
       <c r="N10" s="7">
-        <v>365390</v>
+        <v>46750</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="D11" s="7">
-        <v>45600</v>
+        <v>124950</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="I11" s="7">
-        <v>36542</v>
+        <v>126559</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
-        <v>118</v>
+        <v>353</v>
       </c>
       <c r="N11" s="7">
-        <v>82142</v>
+        <v>251508</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,153 +3769,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="D12" s="7">
-        <v>225350</v>
+        <v>149341</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="I12" s="7">
-        <v>222182</v>
+        <v>148917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>619</v>
+        <v>421</v>
       </c>
       <c r="N12" s="7">
-        <v>447532</v>
+        <v>298258</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7">
-        <v>301668</v>
+        <v>31333</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
-        <v>433</v>
+        <v>45</v>
       </c>
       <c r="I13" s="7">
-        <v>300987</v>
+        <v>28788</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
-        <v>850</v>
+        <v>88</v>
       </c>
       <c r="N13" s="7">
-        <v>602655</v>
+        <v>60121</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="D14" s="7">
-        <v>67090</v>
+        <v>104672</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="I14" s="7">
-        <v>61631</v>
+        <v>116317</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
-        <v>188</v>
+        <v>304</v>
       </c>
       <c r="N14" s="7">
-        <v>128721</v>
+        <v>220989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,55 +3924,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>184</v>
+      </c>
+      <c r="D15" s="7">
+        <v>136005</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>208</v>
+      </c>
+      <c r="I15" s="7">
+        <v>145105</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>392</v>
+      </c>
+      <c r="N15" s="7">
+        <v>281110</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>94</v>
+      </c>
+      <c r="D16" s="7">
+        <v>67090</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="7">
+        <v>94</v>
+      </c>
+      <c r="I16" s="7">
+        <v>61631</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M16" s="7">
+        <v>188</v>
+      </c>
+      <c r="N16" s="7">
+        <v>128721</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>417</v>
+      </c>
+      <c r="D17" s="7">
+        <v>301668</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="7">
+        <v>433</v>
+      </c>
+      <c r="I17" s="7">
+        <v>300987</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M17" s="7">
+        <v>850</v>
+      </c>
+      <c r="N17" s="7">
+        <v>602655</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>511</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>368758</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>527</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>362618</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1038</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>731376</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3538,8 +4146,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB792E72-7A7C-4995-BAE9-F0FE11A1AFE5}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5058E912-80ED-4928-A0B1-CC43E2ABF4A1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3555,7 +4163,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3656,100 +4264,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>18253</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>12094</v>
+        <v>2473</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>30346</v>
+        <v>2473</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>3192</v>
+        <v>5284</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>4057</v>
+        <v>3444</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>7250</v>
+        <v>8728</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,153 +4366,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>21445</v>
+        <v>5284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>16151</v>
+        <v>5917</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>37596</v>
+        <v>11201</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>100335</v>
+        <v>13956</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="H7" s="7">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>87877</v>
+        <v>12224</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>188212</v>
+        <v>26180</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="D8" s="7">
-        <v>23385</v>
+        <v>59426</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="H8" s="7">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="I8" s="7">
-        <v>23655</v>
+        <v>54846</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="M8" s="7">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="N8" s="7">
-        <v>47040</v>
+        <v>114272</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,153 +4521,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="D9" s="7">
-        <v>123720</v>
+        <v>73382</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="I9" s="7">
-        <v>111532</v>
+        <v>67070</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="N9" s="7">
-        <v>235252</v>
+        <v>140452</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>317</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>272393</v>
+        <v>25313</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
-        <v>309</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>232314</v>
+        <v>23693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
-        <v>626</v>
+        <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>504707</v>
+        <v>49006</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="D11" s="7">
-        <v>47244</v>
+        <v>131894</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="H11" s="7">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="I11" s="7">
-        <v>40027</v>
+        <v>100431</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="M11" s="7">
-        <v>119</v>
+        <v>288</v>
       </c>
       <c r="N11" s="7">
-        <v>87271</v>
+        <v>232325</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,153 +4676,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>377</v>
+        <v>186</v>
       </c>
       <c r="D12" s="7">
-        <v>319637</v>
+        <v>157207</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="I12" s="7">
-        <v>272341</v>
+        <v>124124</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>745</v>
+        <v>349</v>
       </c>
       <c r="N12" s="7">
-        <v>591978</v>
+        <v>281331</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>475</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>390982</v>
+        <v>34552</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="H13" s="7">
-        <v>457</v>
+        <v>44</v>
       </c>
       <c r="I13" s="7">
-        <v>332285</v>
+        <v>29349</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>121</v>
       </c>
       <c r="M13" s="7">
-        <v>932</v>
+        <v>88</v>
       </c>
       <c r="N13" s="7">
-        <v>723265</v>
+        <v>63902</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>95</v>
+        <v>224</v>
       </c>
       <c r="D14" s="7">
-        <v>73821</v>
+        <v>194379</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="I14" s="7">
-        <v>67739</v>
+        <v>173563</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>130</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
-        <v>192</v>
+        <v>457</v>
       </c>
       <c r="N14" s="7">
-        <v>141561</v>
+        <v>367941</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,55 +4831,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>268</v>
+      </c>
+      <c r="D15" s="7">
+        <v>228931</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>277</v>
+      </c>
+      <c r="I15" s="7">
+        <v>202912</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>545</v>
+      </c>
+      <c r="N15" s="7">
+        <v>431843</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>95</v>
+      </c>
+      <c r="D16" s="7">
+        <v>73821</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H16" s="7">
+        <v>97</v>
+      </c>
+      <c r="I16" s="7">
+        <v>67739</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M16" s="7">
+        <v>192</v>
+      </c>
+      <c r="N16" s="7">
+        <v>141561</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>475</v>
+      </c>
+      <c r="D17" s="7">
+        <v>390982</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H17" s="7">
+        <v>457</v>
+      </c>
+      <c r="I17" s="7">
+        <v>332285</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="M17" s="7">
+        <v>932</v>
+      </c>
+      <c r="N17" s="7">
+        <v>723265</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>570</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>464803</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>554</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>400024</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1124</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>864826</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP19C03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C03-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6C23B6F-D5F5-4078-8939-0453EDA891C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12BF1177-5E25-414D-9CA8-6B583B2E83B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60C6A628-E411-4F76-97C6-D609120FFEA8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B213351-E1B7-40A5-8E25-6F136013E342}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="327">
   <si>
     <t>Menores según su última visita al dentista fue por empastes en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -113,55 +113,55 @@
     <t>9,04%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>11,51%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
   </si>
   <si>
     <t>10,3%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
   </si>
   <si>
     <t>90,96%</t>
   </si>
   <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>88,49%</t>
   </si>
   <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
   </si>
   <si>
     <t>89,7%</t>
   </si>
   <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -170,850 +170,856 @@
     <t>16,7%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
   </si>
   <si>
     <t>18,15%</t>
   </si>
   <si>
-    <t>14,21%</t>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2016 (Tasa respuesta: 48,82%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
   </si>
   <si>
     <t>23,04%</t>
   </si>
   <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
   </si>
   <si>
     <t>76,96%</t>
   </si>
   <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
   </si>
   <si>
     <t>82,75%</t>
   </si>
   <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2015 (Tasa respuesta: 48,82%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
   </si>
   <si>
     <t>84,12%</t>
   </si>
   <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>83,07%</t>
   </si>
   <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5000138-106A-4ECD-BDF7-D3D45349B991}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6982448B-B163-4CEF-9BF3-266F7DF18E94}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2332,7 +2338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E348D9B-1CEC-431F-B0E8-AC25C643886F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF00810B-8F2B-42AA-8584-F69C5AF66AFD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2951,13 +2957,13 @@
         <v>72392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2978,13 @@
         <v>108889</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>153</v>
@@ -2987,13 +2993,13 @@
         <v>108395</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>312</v>
@@ -3002,13 +3008,13 @@
         <v>217283</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,13 +3082,13 @@
         <v>71120</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -3091,13 +3097,13 @@
         <v>72944</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M16" s="7">
         <v>213</v>
@@ -3106,13 +3112,13 @@
         <v>144064</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,13 +3133,13 @@
         <v>295454</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>396</v>
@@ -3142,13 +3148,13 @@
         <v>280409</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
         <v>815</v>
@@ -3157,13 +3163,13 @@
         <v>575863</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,7 +3245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291E5B9F-739C-4AB8-8CB4-128A864E6131}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E2FFEA-B7E7-4DDE-B16C-B57F8A615C9C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3256,7 +3262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3369,7 +3375,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3417,7 +3423,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3518,13 +3524,13 @@
         <v>11366</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -3533,13 +3539,13 @@
         <v>10485</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -3548,13 +3554,13 @@
         <v>21850</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3575,13 @@
         <v>70763</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>88</v>
@@ -3584,13 +3590,13 @@
         <v>57575</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>190</v>
@@ -3599,13 +3605,13 @@
         <v>128339</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3679,13 @@
         <v>24391</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -3688,13 +3694,13 @@
         <v>22358</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -3703,13 +3709,13 @@
         <v>46750</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,7 +3736,7 @@
         <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>181</v>
@@ -3739,13 +3745,13 @@
         <v>126559</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>353</v>
@@ -3754,13 +3760,13 @@
         <v>251508</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3834,13 @@
         <v>31333</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -3843,13 +3849,13 @@
         <v>28788</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -3858,13 +3864,13 @@
         <v>60121</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,7 +3885,7 @@
         <v>104672</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>218</v>
@@ -4013,13 +4019,13 @@
         <v>128721</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4040,13 @@
         <v>301668</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>433</v>
@@ -4049,13 +4055,13 @@
         <v>300987</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>850</v>
@@ -4064,13 +4070,13 @@
         <v>602655</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,7 +4152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5058E912-80ED-4928-A0B1-CC43E2ABF4A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D914ECB5-CA5C-4602-BC91-31A7AA458329}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4163,7 +4169,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4276,7 +4282,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4285,13 +4291,13 @@
         <v>2473</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4300,13 +4306,13 @@
         <v>2473</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,7 +4330,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4336,13 +4342,13 @@
         <v>3444</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -4351,13 +4357,13 @@
         <v>8728</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4431,13 @@
         <v>13956</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -4440,13 +4446,13 @@
         <v>12224</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -4455,13 +4461,13 @@
         <v>26180</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4482,13 @@
         <v>59426</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H8" s="7">
         <v>84</v>
@@ -4491,13 +4497,13 @@
         <v>54846</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M8" s="7">
         <v>171</v>
@@ -4506,13 +4512,13 @@
         <v>114272</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4586,13 @@
         <v>25313</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -4595,13 +4601,13 @@
         <v>23693</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -4610,13 +4616,13 @@
         <v>49006</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4637,13 @@
         <v>131894</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -4646,13 +4652,13 @@
         <v>100431</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M11" s="7">
         <v>288</v>
@@ -4661,13 +4667,13 @@
         <v>232325</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4741,13 @@
         <v>34552</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -4750,13 +4756,13 @@
         <v>29349</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -4765,7 +4771,7 @@
         <v>63902</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>298</v>
@@ -4804,10 +4810,10 @@
         <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>130</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>457</v>
@@ -4816,13 +4822,13 @@
         <v>367941</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4896,13 @@
         <v>73821</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
@@ -4905,13 +4911,13 @@
         <v>67739</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>192</v>
@@ -4920,13 +4926,13 @@
         <v>141561</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4947,13 @@
         <v>390982</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H17" s="7">
         <v>457</v>
@@ -4956,13 +4962,13 @@
         <v>332285</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>932</v>
@@ -4971,13 +4977,13 @@
         <v>723265</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP19C03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12BF1177-5E25-414D-9CA8-6B583B2E83B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E08E982D-9902-42D9-A613-26E818FA3C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B213351-E1B7-40A5-8E25-6F136013E342}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{01CEDEC6-E7B1-4725-8AB7-2CA0A11D50FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="321">
   <si>
     <t>Menores según su última visita al dentista fue por empastes en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,12 +80,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>26,42%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
     <t>18,74%</t>
   </si>
   <si>
@@ -95,931 +95,913 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
     <t>81,26%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>4,83%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2016 (Tasa respuesta: 48,82%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
   <si>
     <t>85,18%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2016 (Tasa respuesta: 48,82%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6982448B-B163-4CEF-9BF3-266F7DF18E94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52B415B-8E56-4E5A-A011-B63C667ABD5C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1600,10 +1582,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>1893</v>
+        <v>3906</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1615,10 +1597,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>3906</v>
+        <v>1893</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1651,25 +1633,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3906</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1893</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3906</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1704,10 +1686,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>7270</v>
+        <v>9703</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1719,10 +1701,10 @@
         <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>9703</v>
+        <v>7270</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -1758,7 +1740,7 @@
         <v>112</v>
       </c>
       <c r="D8" s="7">
-        <v>73148</v>
+        <v>74632</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -1773,7 +1755,7 @@
         <v>112</v>
       </c>
       <c r="I8" s="7">
-        <v>74632</v>
+        <v>73148</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
@@ -1806,25 +1788,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>127</v>
+      </c>
+      <c r="D9" s="7">
+        <v>84335</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>123</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>80418</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>127</v>
-      </c>
-      <c r="I9" s="7">
-        <v>84335</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1859,10 +1841,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>17652</v>
+        <v>19547</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
@@ -1874,10 +1856,10 @@
         <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>19547</v>
+        <v>17652</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>45</v>
@@ -1910,10 +1892,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D11" s="7">
-        <v>88067</v>
+        <v>79646</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>51</v>
@@ -1925,10 +1907,10 @@
         <v>53</v>
       </c>
       <c r="H11" s="7">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="I11" s="7">
-        <v>79646</v>
+        <v>88067</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>54</v>
@@ -1961,25 +1943,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>148</v>
+      </c>
+      <c r="D12" s="7">
+        <v>99193</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>158</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>105719</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>148</v>
-      </c>
-      <c r="I12" s="7">
-        <v>99193</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2014,10 +1996,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D13" s="7">
-        <v>38549</v>
+        <v>43539</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>61</v>
@@ -2029,10 +2011,10 @@
         <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I13" s="7">
-        <v>43539</v>
+        <v>38549</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>64</v>
@@ -2065,10 +2047,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="D14" s="7">
-        <v>135152</v>
+        <v>119958</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>70</v>
@@ -2080,10 +2062,10 @@
         <v>72</v>
       </c>
       <c r="H14" s="7">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="I14" s="7">
-        <v>119958</v>
+        <v>135152</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>73</v>
@@ -2116,25 +2098,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>241</v>
+      </c>
+      <c r="D15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>261</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>173701</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>241</v>
-      </c>
-      <c r="I15" s="7">
-        <v>163497</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2169,10 +2151,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D16" s="7">
-        <v>63471</v>
+        <v>72789</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>79</v>
@@ -2184,10 +2166,10 @@
         <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I16" s="7">
-        <v>72789</v>
+        <v>63471</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>82</v>
@@ -2220,10 +2202,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="D17" s="7">
-        <v>298260</v>
+        <v>278141</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>88</v>
@@ -2235,10 +2217,10 @@
         <v>90</v>
       </c>
       <c r="H17" s="7">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="I17" s="7">
-        <v>278141</v>
+        <v>298260</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>91</v>
@@ -2271,25 +2253,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>522</v>
+      </c>
+      <c r="D18" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>545</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>361731</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>522</v>
-      </c>
-      <c r="I18" s="7">
-        <v>350930</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2338,7 +2320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF00810B-8F2B-42AA-8584-F69C5AF66AFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D1094C-0E9B-4D00-B57B-7A5D1FD738AE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2498,7 +2480,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,10 +2489,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>669</v>
+        <v>3298</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -2522,10 +2504,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>3298</v>
+        <v>669</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -2546,7 +2528,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2558,25 +2540,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3298</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>669</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3298</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2611,10 +2593,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>12694</v>
+        <v>7162</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>103</v>
@@ -2626,10 +2608,10 @@
         <v>105</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>7162</v>
+        <v>12694</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>106</v>
@@ -2662,10 +2644,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D8" s="7">
-        <v>79370</v>
+        <v>70526</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>112</v>
@@ -2677,10 +2659,10 @@
         <v>114</v>
       </c>
       <c r="H8" s="7">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I8" s="7">
-        <v>70526</v>
+        <v>79370</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>115</v>
@@ -2713,25 +2695,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>110</v>
+      </c>
+      <c r="D9" s="7">
+        <v>77688</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>124</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>92064</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>110</v>
-      </c>
-      <c r="I9" s="7">
-        <v>77688</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2769,7 +2751,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>25560</v>
+        <v>26257</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>121</v>
@@ -2778,22 +2760,22 @@
         <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>26257</v>
+        <v>25560</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -2802,13 +2784,13 @@
         <v>51816</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,34 +2799,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>139</v>
+      </c>
+      <c r="D11" s="7">
+        <v>98191</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="7">
         <v>152</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>106526</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="7">
-        <v>139</v>
-      </c>
-      <c r="I11" s="7">
-        <v>98191</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>291</v>
@@ -2853,13 +2835,13 @@
         <v>204718</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,25 +2850,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>177</v>
+      </c>
+      <c r="D12" s="7">
+        <v>124448</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>190</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>132086</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>177</v>
-      </c>
-      <c r="I12" s="7">
-        <v>124448</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2921,34 +2903,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>58</v>
+      </c>
+      <c r="D13" s="7">
+        <v>39525</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="7">
         <v>51</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>32866</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="7">
-        <v>58</v>
-      </c>
-      <c r="I13" s="7">
-        <v>39525</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -2957,13 +2939,13 @@
         <v>72392</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,34 +2954,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>153</v>
+      </c>
+      <c r="D14" s="7">
+        <v>108395</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="7">
         <v>159</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>108889</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="7">
-        <v>153</v>
-      </c>
-      <c r="I14" s="7">
-        <v>108395</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>312</v>
@@ -3008,13 +2990,13 @@
         <v>217283</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,25 +3005,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>211</v>
+      </c>
+      <c r="D15" s="7">
+        <v>147920</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>210</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141755</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>211</v>
-      </c>
-      <c r="I15" s="7">
-        <v>147920</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3076,34 +3058,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>107</v>
+      </c>
+      <c r="D16" s="7">
+        <v>72944</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="7">
         <v>106</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>71120</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H16" s="7">
-        <v>107</v>
-      </c>
-      <c r="I16" s="7">
-        <v>72944</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M16" s="7">
         <v>213</v>
@@ -3112,13 +3094,13 @@
         <v>144064</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,34 +3109,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>396</v>
+      </c>
+      <c r="D17" s="7">
+        <v>280409</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="7">
         <v>419</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>295454</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="H17" s="7">
-        <v>396</v>
-      </c>
-      <c r="I17" s="7">
-        <v>280409</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M17" s="7">
         <v>815</v>
@@ -3163,13 +3145,13 @@
         <v>575863</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,25 +3160,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>503</v>
+      </c>
+      <c r="D18" s="7">
+        <v>353353</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>525</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>366574</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>503</v>
-      </c>
-      <c r="I18" s="7">
-        <v>353353</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3245,7 +3227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E2FFEA-B7E7-4DDE-B16C-B57F8A615C9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAA41C1-1E0D-4B46-90DC-F09A27A6F762}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3262,7 +3244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3375,7 +3357,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3390,7 +3372,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3405,7 +3387,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,31 +3396,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1284</v>
+        <v>536</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>536</v>
+        <v>1284</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3453,7 +3435,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3465,25 +3447,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>536</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1284</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3521,31 +3503,31 @@
         <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>11366</v>
+        <v>10485</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>10485</v>
+        <v>11366</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -3554,13 +3536,13 @@
         <v>21850</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,34 +3551,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>88</v>
+      </c>
+      <c r="D8" s="7">
+        <v>57575</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="7">
         <v>102</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>70763</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="H8" s="7">
-        <v>88</v>
-      </c>
-      <c r="I8" s="7">
-        <v>57575</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>190</v>
@@ -3605,13 +3587,13 @@
         <v>128339</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,25 +3602,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>104</v>
+      </c>
+      <c r="D9" s="7">
+        <v>68060</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>118</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>82129</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>104</v>
-      </c>
-      <c r="I9" s="7">
-        <v>68060</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3673,34 +3655,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7">
+        <v>22358</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H10" s="7">
         <v>35</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>24391</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="H10" s="7">
-        <v>33</v>
-      </c>
-      <c r="I10" s="7">
-        <v>22358</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -3709,13 +3691,13 @@
         <v>46750</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,34 +3706,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>181</v>
+      </c>
+      <c r="D11" s="7">
+        <v>126559</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="7">
         <v>172</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>124950</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="7">
-        <v>181</v>
-      </c>
-      <c r="I11" s="7">
-        <v>126559</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>353</v>
@@ -3760,10 +3742,10 @@
         <v>251508</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>207</v>
@@ -3775,25 +3757,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>214</v>
+      </c>
+      <c r="D12" s="7">
+        <v>148917</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>207</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>149341</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>214</v>
-      </c>
-      <c r="I12" s="7">
-        <v>148917</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3828,10 +3810,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>31333</v>
+        <v>28788</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>208</v>
@@ -3843,10 +3825,10 @@
         <v>210</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I13" s="7">
-        <v>28788</v>
+        <v>31333</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>211</v>
@@ -3879,10 +3861,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D14" s="7">
-        <v>104672</v>
+        <v>116317</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>217</v>
@@ -3894,10 +3876,10 @@
         <v>219</v>
       </c>
       <c r="H14" s="7">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="I14" s="7">
-        <v>116317</v>
+        <v>104672</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>220</v>
@@ -3930,25 +3912,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>208</v>
+      </c>
+      <c r="D15" s="7">
+        <v>145105</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>184</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>136005</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>208</v>
-      </c>
-      <c r="I15" s="7">
-        <v>145105</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3986,7 +3968,7 @@
         <v>94</v>
       </c>
       <c r="D16" s="7">
-        <v>67090</v>
+        <v>61631</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>226</v>
@@ -4001,7 +3983,7 @@
         <v>94</v>
       </c>
       <c r="I16" s="7">
-        <v>61631</v>
+        <v>67090</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>229</v>
@@ -4019,13 +4001,13 @@
         <v>128721</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,34 +4016,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>433</v>
+      </c>
+      <c r="D17" s="7">
+        <v>300987</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="7">
         <v>417</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>301668</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H17" s="7">
-        <v>433</v>
-      </c>
-      <c r="I17" s="7">
-        <v>300987</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>850</v>
@@ -4070,13 +4052,13 @@
         <v>602655</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,25 +4067,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>527</v>
+      </c>
+      <c r="D18" s="7">
+        <v>362618</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>511</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>368758</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>527</v>
-      </c>
-      <c r="I18" s="7">
-        <v>362618</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4152,7 +4134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D914ECB5-CA5C-4602-BC91-31A7AA458329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF2569F-0BCC-4C7E-94D5-28B1A5CAA51E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4169,7 +4151,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4270,49 +4252,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2422</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2473</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>2473</v>
+        <v>2422</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,46 +4306,46 @@
         <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>5284</v>
+        <v>3375</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>89</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>3444</v>
+        <v>5316</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>249</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>8728</v>
+        <v>8691</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,25 +4354,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5797</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
-        <v>5284</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>11</v>
-      </c>
       <c r="I6" s="7">
-        <v>5917</v>
+        <v>5316</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4405,7 +4387,7 @@
         <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>11201</v>
+        <v>11113</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4425,49 +4407,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7">
+        <v>12009</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H7" s="7">
         <v>21</v>
       </c>
-      <c r="D7" s="7">
-        <v>13956</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H7" s="7">
-        <v>19</v>
-      </c>
       <c r="I7" s="7">
-        <v>12224</v>
+        <v>14172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>26180</v>
+        <v>26181</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,10 +4458,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D8" s="7">
-        <v>59426</v>
+        <v>54187</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>264</v>
@@ -4488,37 +4470,37 @@
         <v>265</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="7">
+        <v>87</v>
+      </c>
+      <c r="I8" s="7">
+        <v>62959</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H8" s="7">
-        <v>84</v>
-      </c>
-      <c r="I8" s="7">
-        <v>54846</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>171</v>
       </c>
       <c r="N8" s="7">
-        <v>114272</v>
+        <v>117146</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,25 +4509,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>103</v>
+      </c>
+      <c r="D9" s="7">
+        <v>66196</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>108</v>
       </c>
-      <c r="D9" s="7">
-        <v>73382</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>103</v>
-      </c>
       <c r="I9" s="7">
-        <v>67070</v>
+        <v>77131</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4560,7 +4542,7 @@
         <v>211</v>
       </c>
       <c r="N9" s="7">
-        <v>140452</v>
+        <v>143327</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4580,49 +4562,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7">
+        <v>24713</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H10" s="7">
         <v>30</v>
       </c>
-      <c r="D10" s="7">
-        <v>25313</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>28221</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H10" s="7">
-        <v>31</v>
-      </c>
-      <c r="I10" s="7">
-        <v>23693</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>49006</v>
+        <v>52934</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,49 +4613,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>132</v>
+      </c>
+      <c r="D11" s="7">
+        <v>97190</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H11" s="7">
         <v>156</v>
       </c>
-      <c r="D11" s="7">
-        <v>131894</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>136567</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="H11" s="7">
-        <v>132</v>
-      </c>
-      <c r="I11" s="7">
-        <v>100431</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M11" s="7">
         <v>288</v>
       </c>
       <c r="N11" s="7">
-        <v>232325</v>
+        <v>233757</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>289</v>
+        <v>183</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,25 +4664,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>163</v>
+      </c>
+      <c r="D12" s="7">
+        <v>121903</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>186</v>
       </c>
-      <c r="D12" s="7">
-        <v>157207</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>163</v>
-      </c>
       <c r="I12" s="7">
-        <v>124124</v>
+        <v>164788</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4715,7 +4697,7 @@
         <v>349</v>
       </c>
       <c r="N12" s="7">
-        <v>281331</v>
+        <v>286691</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4738,46 +4720,46 @@
         <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>34552</v>
+        <v>29762</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
       </c>
       <c r="I13" s="7">
-        <v>29349</v>
+        <v>36395</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
       </c>
       <c r="N13" s="7">
-        <v>63902</v>
+        <v>66158</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,49 +4768,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>233</v>
+      </c>
+      <c r="D14" s="7">
+        <v>167975</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H14" s="7">
         <v>224</v>
       </c>
-      <c r="D14" s="7">
-        <v>194379</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>200813</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H14" s="7">
-        <v>233</v>
-      </c>
-      <c r="I14" s="7">
-        <v>173563</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>457</v>
       </c>
       <c r="N14" s="7">
-        <v>367941</v>
+        <v>368787</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,25 +4819,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>277</v>
+      </c>
+      <c r="D15" s="7">
+        <v>197737</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>268</v>
       </c>
-      <c r="D15" s="7">
-        <v>228931</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>277</v>
-      </c>
       <c r="I15" s="7">
-        <v>202912</v>
+        <v>237208</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4870,7 +4852,7 @@
         <v>545</v>
       </c>
       <c r="N15" s="7">
-        <v>431843</v>
+        <v>434945</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4890,49 +4872,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>97</v>
+      </c>
+      <c r="D16" s="7">
+        <v>68906</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H16" s="7">
         <v>95</v>
       </c>
-      <c r="D16" s="7">
-        <v>73821</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>78788</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H16" s="7">
-        <v>97</v>
-      </c>
-      <c r="I16" s="7">
-        <v>67739</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>192</v>
       </c>
       <c r="N16" s="7">
-        <v>141561</v>
+        <v>147694</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,49 +4923,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>457</v>
+      </c>
+      <c r="D17" s="7">
+        <v>322727</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H17" s="7">
         <v>475</v>
       </c>
-      <c r="D17" s="7">
-        <v>390982</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H17" s="7">
-        <v>457</v>
-      </c>
       <c r="I17" s="7">
-        <v>332285</v>
+        <v>405656</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
         <v>932</v>
       </c>
       <c r="N17" s="7">
-        <v>723265</v>
+        <v>728382</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,25 +4974,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>554</v>
+      </c>
+      <c r="D18" s="7">
+        <v>391633</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>570</v>
       </c>
-      <c r="D18" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>554</v>
-      </c>
       <c r="I18" s="7">
-        <v>400024</v>
+        <v>484444</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5025,7 +5007,7 @@
         <v>1124</v>
       </c>
       <c r="N18" s="7">
-        <v>864826</v>
+        <v>876076</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
